--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vidar\Documents\Rwd\ai_portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14397F89-BDA3-4983-B582-B8F1AE1CE42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9938784B-D6B0-4369-923D-A7120D533479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14580" yWindow="2730" windowWidth="11760" windowHeight="10245" xr2:uid="{8021A6AD-FF9C-44B8-B823-FCF9A6CAB446}"/>
+    <workbookView xWindow="20385" yWindow="3075" windowWidth="6315" windowHeight="10695" xr2:uid="{8021A6AD-FF9C-44B8-B823-FCF9A6CAB446}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
   <si>
     <t>date</t>
   </si>
@@ -78,6 +78,15 @@
   </si>
   <si>
     <t>0,1</t>
+  </si>
+  <si>
+    <t>0,25</t>
+  </si>
+  <si>
+    <t>0,2</t>
+  </si>
+  <si>
+    <t>0,5</t>
   </si>
 </sst>
 </file>
@@ -450,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76405F02-88FB-4385-9399-EAE5923F1017}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,6 +591,83 @@
         <v>13</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45917</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45917</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45917</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45917</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45917</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45917</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>45917</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vidar\Documents\Rwd\ai_portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9938784B-D6B0-4369-923D-A7120D533479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCFAA74-C1DB-4692-B737-2D27CE926DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20385" yWindow="3075" windowWidth="6315" windowHeight="10695" xr2:uid="{8021A6AD-FF9C-44B8-B823-FCF9A6CAB446}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8021A6AD-FF9C-44B8-B823-FCF9A6CAB446}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -75,18 +75,6 @@
   </si>
   <si>
     <t>FSLR</t>
-  </si>
-  <si>
-    <t>0,1</t>
-  </si>
-  <si>
-    <t>0,25</t>
-  </si>
-  <si>
-    <t>0,2</t>
-  </si>
-  <si>
-    <t>0,5</t>
   </si>
 </sst>
 </file>
@@ -462,7 +450,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,8 +476,8 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
+      <c r="C2">
+        <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -499,8 +487,8 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
+      <c r="C3">
+        <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -510,8 +498,8 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
+      <c r="C4">
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -521,8 +509,8 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
+      <c r="C5">
+        <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -532,8 +520,8 @@
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
+      <c r="C6">
+        <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -543,8 +531,8 @@
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
-        <v>13</v>
+      <c r="C7">
+        <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -554,8 +542,8 @@
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
-        <v>13</v>
+      <c r="C8">
+        <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -565,8 +553,8 @@
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
-        <v>13</v>
+      <c r="C9">
+        <v>0.1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -576,8 +564,8 @@
       <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" t="s">
-        <v>13</v>
+      <c r="C10">
+        <v>0.1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -587,8 +575,8 @@
       <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" t="s">
-        <v>13</v>
+      <c r="C11">
+        <v>0.1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -598,8 +586,8 @@
       <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="C12" t="s">
-        <v>14</v>
+      <c r="C12">
+        <v>0.25</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -609,8 +597,8 @@
       <c r="B13" t="s">
         <v>4</v>
       </c>
-      <c r="C13" t="s">
-        <v>15</v>
+      <c r="C13">
+        <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -620,8 +608,8 @@
       <c r="B14" t="s">
         <v>5</v>
       </c>
-      <c r="C14" t="s">
-        <v>15</v>
+      <c r="C14">
+        <v>0.2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -631,8 +619,8 @@
       <c r="B15" t="s">
         <v>6</v>
       </c>
-      <c r="C15" t="s">
-        <v>13</v>
+      <c r="C15">
+        <v>0.1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -642,8 +630,8 @@
       <c r="B16" t="s">
         <v>7</v>
       </c>
-      <c r="C16" t="s">
-        <v>13</v>
+      <c r="C16">
+        <v>0.1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -653,8 +641,8 @@
       <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="C17" t="s">
-        <v>13</v>
+      <c r="C17">
+        <v>0.1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -664,8 +652,8 @@
       <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="C18" t="s">
-        <v>16</v>
+      <c r="C18">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vidar\Documents\Rwd\ai_portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCFAA74-C1DB-4692-B737-2D27CE926DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DB8EFC-474C-4A33-A2A1-E33CA920EC4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8021A6AD-FF9C-44B8-B823-FCF9A6CAB446}"/>
+    <workbookView xWindow="4740" yWindow="1200" windowWidth="9675" windowHeight="11640" xr2:uid="{8021A6AD-FF9C-44B8-B823-FCF9A6CAB446}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
-  <si>
-    <t>date</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
   <si>
     <t>symbol</t>
   </si>
@@ -76,11 +73,50 @@
   <si>
     <t>FSLR</t>
   </si>
+  <si>
+    <t>portfolio_name</t>
+  </si>
+  <si>
+    <t>High risk</t>
+  </si>
+  <si>
+    <t>Balanced</t>
+  </si>
+  <si>
+    <t>rebalance_date</t>
+  </si>
+  <si>
+    <t>NVDA</t>
+  </si>
+  <si>
+    <t>MSFT</t>
+  </si>
+  <si>
+    <t>PANW</t>
+  </si>
+  <si>
+    <t>LLY</t>
+  </si>
+  <si>
+    <t>LMT</t>
+  </si>
+  <si>
+    <t>NOC</t>
+  </si>
+  <si>
+    <t>NEE</t>
+  </si>
+  <si>
+    <t>CFG</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -112,7 +148,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,214 +483,2937 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76405F02-88FB-4385-9399-EAE5923F1017}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D878"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45798</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="D2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1">
         <v>45798</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="D3">
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1">
         <v>45798</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="D4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1">
         <v>45798</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="D5">
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1">
         <v>45798</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="D6">
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1">
         <v>45798</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="C6">
+      <c r="D7">
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1">
         <v>45798</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
+      <c r="D8">
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1">
         <v>45798</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="C8">
+      <c r="D9">
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1">
         <v>45798</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C10" t="s">
         <v>10</v>
       </c>
-      <c r="C9">
+      <c r="D10">
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
         <v>45798</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C11" t="s">
         <v>11</v>
       </c>
-      <c r="C10">
+      <c r="D11">
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>45798</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45917</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45917</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>45917</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>45917</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15">
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1">
         <v>45917</v>
       </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1">
         <v>45917</v>
       </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13">
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1">
+        <v>45917</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1">
+        <v>45924</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="1">
+        <v>45924</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20">
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>45917</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>45917</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="1">
+        <v>45924</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21">
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>45917</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="1">
+        <v>45924</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="1">
+        <v>45924</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23">
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>45917</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="1">
+        <v>45924</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24">
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>45917</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18">
-        <v>0.05</v>
-      </c>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="1">
+        <v>45924</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="1">
+        <v>45924</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="1"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="1"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="1"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="1"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="1"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="1"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="1"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="1"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="1"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="1"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="1"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="1"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="1"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="1"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="1"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="1"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="1"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="1"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="1"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" s="1"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="1"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="1"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="1"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="1"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="1"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="1"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="1"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="1"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="1"/>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" s="1"/>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102" s="1"/>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103" s="1"/>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104" s="1"/>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105" s="1"/>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106" s="1"/>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107" s="1"/>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108" s="1"/>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109" s="1"/>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110" s="1"/>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111" s="1"/>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B112" s="1"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" s="1"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" s="1"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115" s="1"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116" s="1"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117" s="1"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118" s="1"/>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" s="1"/>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120" s="1"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B121" s="1"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122" s="1"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123" s="1"/>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124" s="1"/>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B125" s="1"/>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B126" s="1"/>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B127" s="1"/>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B128" s="1"/>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129" s="1"/>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B130" s="1"/>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B131" s="1"/>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B132" s="1"/>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B133" s="1"/>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B134" s="1"/>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B135" s="1"/>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B136" s="1"/>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B137" s="1"/>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B138" s="1"/>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B139" s="1"/>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B140" s="1"/>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B141" s="1"/>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B142" s="1"/>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B143" s="1"/>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B144" s="1"/>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B145" s="1"/>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B146" s="1"/>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B147" s="1"/>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B148" s="1"/>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B149" s="1"/>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B150" s="1"/>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B151" s="1"/>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B152" s="1"/>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B153" s="1"/>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B154" s="1"/>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B155" s="1"/>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B156" s="1"/>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B157" s="1"/>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B158" s="1"/>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B159" s="1"/>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B160" s="1"/>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B161" s="1"/>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B162" s="1"/>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B163" s="1"/>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B164" s="1"/>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B165" s="1"/>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B166" s="1"/>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B167" s="1"/>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B168" s="1"/>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B169" s="1"/>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B170" s="1"/>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B171" s="1"/>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B172" s="1"/>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B173" s="1"/>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B174" s="1"/>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B175" s="1"/>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B176" s="1"/>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B177" s="1"/>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B178" s="1"/>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B179" s="1"/>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B180" s="1"/>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B181" s="1"/>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B182" s="1"/>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B183" s="1"/>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B184" s="1"/>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B185" s="1"/>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B186" s="1"/>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B187" s="1"/>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B188" s="1"/>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B189" s="1"/>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B190" s="1"/>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B191" s="1"/>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B192" s="1"/>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B193" s="1"/>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B194" s="1"/>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B195" s="1"/>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B196" s="1"/>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B197" s="1"/>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B198" s="1"/>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B199" s="1"/>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B200" s="1"/>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B201" s="1"/>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B202" s="1"/>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B203" s="1"/>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B204" s="1"/>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B205" s="1"/>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B206" s="1"/>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B207" s="1"/>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B208" s="1"/>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B209" s="1"/>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B210" s="1"/>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B211" s="1"/>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B212" s="1"/>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B213" s="1"/>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B214" s="1"/>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B215" s="1"/>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B216" s="1"/>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B217" s="1"/>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B218" s="1"/>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B219" s="1"/>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B220" s="1"/>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B221" s="1"/>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B222" s="1"/>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B223" s="1"/>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B224" s="1"/>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B225" s="1"/>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B226" s="1"/>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B227" s="1"/>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B228" s="1"/>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B229" s="1"/>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B230" s="1"/>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B231" s="1"/>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B232" s="1"/>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B233" s="1"/>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B234" s="1"/>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B235" s="1"/>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B236" s="1"/>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B237" s="1"/>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B238" s="1"/>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B239" s="1"/>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B240" s="1"/>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B241" s="1"/>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B242" s="1"/>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B243" s="1"/>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B244" s="1"/>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B245" s="1"/>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B246" s="1"/>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B247" s="1"/>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B248" s="1"/>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B249" s="1"/>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B250" s="1"/>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B251" s="1"/>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B252" s="1"/>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B253" s="1"/>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B254" s="1"/>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B255" s="1"/>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B256" s="1"/>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B257" s="1"/>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B258" s="1"/>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B259" s="1"/>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B260" s="1"/>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B261" s="1"/>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B262" s="1"/>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B263" s="1"/>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B264" s="1"/>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B265" s="1"/>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B266" s="1"/>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B267" s="1"/>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B268" s="1"/>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B269" s="1"/>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B270" s="1"/>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B271" s="1"/>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B272" s="1"/>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B273" s="1"/>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B274" s="1"/>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B275" s="1"/>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B276" s="1"/>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B277" s="1"/>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B278" s="1"/>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B279" s="1"/>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B280" s="1"/>
+    </row>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B281" s="1"/>
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B282" s="1"/>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B283" s="1"/>
+    </row>
+    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B284" s="1"/>
+    </row>
+    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B285" s="1"/>
+    </row>
+    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B286" s="1"/>
+    </row>
+    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B287" s="1"/>
+    </row>
+    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B288" s="1"/>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B289" s="1"/>
+    </row>
+    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B290" s="1"/>
+    </row>
+    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B291" s="1"/>
+    </row>
+    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B292" s="1"/>
+    </row>
+    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B293" s="1"/>
+    </row>
+    <row r="294" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B294" s="1"/>
+    </row>
+    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B295" s="1"/>
+    </row>
+    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B296" s="1"/>
+    </row>
+    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B297" s="1"/>
+    </row>
+    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B298" s="1"/>
+    </row>
+    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B299" s="1"/>
+    </row>
+    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B300" s="1"/>
+    </row>
+    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B301" s="1"/>
+    </row>
+    <row r="302" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B302" s="1"/>
+    </row>
+    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B303" s="1"/>
+    </row>
+    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B304" s="1"/>
+    </row>
+    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B305" s="1"/>
+    </row>
+    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B306" s="1"/>
+    </row>
+    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B307" s="1"/>
+    </row>
+    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B308" s="1"/>
+    </row>
+    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B309" s="1"/>
+    </row>
+    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B310" s="1"/>
+    </row>
+    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B311" s="1"/>
+    </row>
+    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B312" s="1"/>
+    </row>
+    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B313" s="1"/>
+    </row>
+    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B314" s="1"/>
+    </row>
+    <row r="315" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B315" s="1"/>
+    </row>
+    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B316" s="1"/>
+    </row>
+    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B317" s="1"/>
+    </row>
+    <row r="318" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B318" s="1"/>
+    </row>
+    <row r="319" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B319" s="1"/>
+    </row>
+    <row r="320" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B320" s="1"/>
+    </row>
+    <row r="321" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B321" s="1"/>
+    </row>
+    <row r="322" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B322" s="1"/>
+    </row>
+    <row r="323" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B323" s="1"/>
+    </row>
+    <row r="324" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B324" s="1"/>
+    </row>
+    <row r="325" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B325" s="1"/>
+    </row>
+    <row r="326" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B326" s="1"/>
+    </row>
+    <row r="327" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B327" s="1"/>
+    </row>
+    <row r="328" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B328" s="1"/>
+    </row>
+    <row r="329" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B329" s="1"/>
+    </row>
+    <row r="330" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B330" s="1"/>
+    </row>
+    <row r="331" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B331" s="1"/>
+    </row>
+    <row r="332" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B332" s="1"/>
+    </row>
+    <row r="333" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B333" s="1"/>
+    </row>
+    <row r="334" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B334" s="1"/>
+    </row>
+    <row r="335" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B335" s="1"/>
+    </row>
+    <row r="336" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B336" s="1"/>
+    </row>
+    <row r="337" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B337" s="1"/>
+    </row>
+    <row r="338" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B338" s="1"/>
+    </row>
+    <row r="339" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B339" s="1"/>
+    </row>
+    <row r="340" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B340" s="1"/>
+    </row>
+    <row r="341" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B341" s="1"/>
+    </row>
+    <row r="342" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B342" s="1"/>
+    </row>
+    <row r="343" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B343" s="1"/>
+    </row>
+    <row r="344" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B344" s="1"/>
+    </row>
+    <row r="345" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B345" s="1"/>
+    </row>
+    <row r="346" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B346" s="1"/>
+    </row>
+    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B347" s="1"/>
+    </row>
+    <row r="348" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B348" s="1"/>
+    </row>
+    <row r="349" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B349" s="1"/>
+    </row>
+    <row r="350" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B350" s="1"/>
+    </row>
+    <row r="351" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B351" s="1"/>
+    </row>
+    <row r="352" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B352" s="1"/>
+    </row>
+    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B353" s="1"/>
+    </row>
+    <row r="354" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B354" s="1"/>
+    </row>
+    <row r="355" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B355" s="1"/>
+    </row>
+    <row r="356" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B356" s="1"/>
+    </row>
+    <row r="357" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B357" s="1"/>
+    </row>
+    <row r="358" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B358" s="1"/>
+    </row>
+    <row r="359" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B359" s="1"/>
+    </row>
+    <row r="360" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B360" s="1"/>
+    </row>
+    <row r="361" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B361" s="1"/>
+    </row>
+    <row r="362" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B362" s="1"/>
+    </row>
+    <row r="363" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B363" s="1"/>
+    </row>
+    <row r="364" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B364" s="1"/>
+    </row>
+    <row r="365" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B365" s="1"/>
+    </row>
+    <row r="366" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B366" s="1"/>
+    </row>
+    <row r="367" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B367" s="1"/>
+    </row>
+    <row r="368" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B368" s="1"/>
+    </row>
+    <row r="369" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B369" s="1"/>
+    </row>
+    <row r="370" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B370" s="1"/>
+    </row>
+    <row r="371" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B371" s="1"/>
+    </row>
+    <row r="372" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B372" s="1"/>
+    </row>
+    <row r="373" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B373" s="1"/>
+    </row>
+    <row r="374" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B374" s="1"/>
+    </row>
+    <row r="375" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B375" s="1"/>
+    </row>
+    <row r="376" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B376" s="1"/>
+    </row>
+    <row r="377" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B377" s="1"/>
+    </row>
+    <row r="378" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B378" s="1"/>
+    </row>
+    <row r="379" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B379" s="1"/>
+    </row>
+    <row r="380" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B380" s="1"/>
+    </row>
+    <row r="381" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B381" s="1"/>
+    </row>
+    <row r="382" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B382" s="1"/>
+    </row>
+    <row r="383" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B383" s="1"/>
+    </row>
+    <row r="384" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B384" s="1"/>
+    </row>
+    <row r="385" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B385" s="1"/>
+    </row>
+    <row r="386" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B386" s="1"/>
+    </row>
+    <row r="387" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B387" s="1"/>
+    </row>
+    <row r="388" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B388" s="1"/>
+    </row>
+    <row r="389" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B389" s="1"/>
+    </row>
+    <row r="390" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B390" s="1"/>
+    </row>
+    <row r="391" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B391" s="1"/>
+    </row>
+    <row r="392" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B392" s="1"/>
+    </row>
+    <row r="393" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B393" s="1"/>
+    </row>
+    <row r="394" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B394" s="1"/>
+    </row>
+    <row r="395" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B395" s="1"/>
+    </row>
+    <row r="396" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B396" s="1"/>
+    </row>
+    <row r="397" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B397" s="1"/>
+    </row>
+    <row r="398" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B398" s="1"/>
+    </row>
+    <row r="399" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B399" s="1"/>
+    </row>
+    <row r="400" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B400" s="1"/>
+    </row>
+    <row r="401" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B401" s="1"/>
+    </row>
+    <row r="402" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B402" s="1"/>
+    </row>
+    <row r="403" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B403" s="1"/>
+    </row>
+    <row r="404" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B404" s="1"/>
+    </row>
+    <row r="405" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B405" s="1"/>
+    </row>
+    <row r="406" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B406" s="1"/>
+    </row>
+    <row r="407" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B407" s="1"/>
+    </row>
+    <row r="408" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B408" s="1"/>
+    </row>
+    <row r="409" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B409" s="1"/>
+    </row>
+    <row r="410" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B410" s="1"/>
+    </row>
+    <row r="411" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B411" s="1"/>
+    </row>
+    <row r="412" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B412" s="1"/>
+    </row>
+    <row r="413" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B413" s="1"/>
+    </row>
+    <row r="414" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B414" s="1"/>
+    </row>
+    <row r="415" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B415" s="1"/>
+    </row>
+    <row r="416" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B416" s="1"/>
+    </row>
+    <row r="417" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B417" s="1"/>
+    </row>
+    <row r="418" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B418" s="1"/>
+    </row>
+    <row r="419" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B419" s="1"/>
+    </row>
+    <row r="420" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B420" s="1"/>
+    </row>
+    <row r="421" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B421" s="1"/>
+    </row>
+    <row r="422" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B422" s="1"/>
+    </row>
+    <row r="423" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B423" s="1"/>
+    </row>
+    <row r="424" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B424" s="1"/>
+    </row>
+    <row r="425" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B425" s="1"/>
+    </row>
+    <row r="426" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B426" s="1"/>
+    </row>
+    <row r="427" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B427" s="1"/>
+    </row>
+    <row r="428" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B428" s="1"/>
+    </row>
+    <row r="429" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B429" s="1"/>
+    </row>
+    <row r="430" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B430" s="1"/>
+    </row>
+    <row r="431" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B431" s="1"/>
+    </row>
+    <row r="432" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B432" s="1"/>
+    </row>
+    <row r="433" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B433" s="1"/>
+    </row>
+    <row r="434" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B434" s="1"/>
+    </row>
+    <row r="435" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B435" s="1"/>
+    </row>
+    <row r="436" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B436" s="1"/>
+    </row>
+    <row r="437" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B437" s="1"/>
+    </row>
+    <row r="438" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B438" s="1"/>
+    </row>
+    <row r="439" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B439" s="1"/>
+    </row>
+    <row r="440" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B440" s="1"/>
+    </row>
+    <row r="441" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B441" s="1"/>
+    </row>
+    <row r="442" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B442" s="1"/>
+    </row>
+    <row r="443" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B443" s="1"/>
+    </row>
+    <row r="444" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B444" s="1"/>
+    </row>
+    <row r="445" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B445" s="1"/>
+    </row>
+    <row r="446" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B446" s="1"/>
+    </row>
+    <row r="447" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B447" s="1"/>
+    </row>
+    <row r="448" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B448" s="1"/>
+    </row>
+    <row r="449" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B449" s="1"/>
+    </row>
+    <row r="450" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B450" s="1"/>
+    </row>
+    <row r="451" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B451" s="1"/>
+    </row>
+    <row r="452" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B452" s="1"/>
+    </row>
+    <row r="453" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B453" s="1"/>
+    </row>
+    <row r="454" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B454" s="1"/>
+    </row>
+    <row r="455" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B455" s="1"/>
+    </row>
+    <row r="456" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B456" s="1"/>
+    </row>
+    <row r="457" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B457" s="1"/>
+    </row>
+    <row r="458" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B458" s="1"/>
+    </row>
+    <row r="459" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B459" s="1"/>
+    </row>
+    <row r="460" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B460" s="1"/>
+    </row>
+    <row r="461" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B461" s="1"/>
+    </row>
+    <row r="462" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B462" s="1"/>
+    </row>
+    <row r="463" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B463" s="1"/>
+    </row>
+    <row r="464" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B464" s="1"/>
+    </row>
+    <row r="465" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B465" s="1"/>
+    </row>
+    <row r="466" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B466" s="1"/>
+    </row>
+    <row r="467" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B467" s="1"/>
+    </row>
+    <row r="468" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B468" s="1"/>
+    </row>
+    <row r="469" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B469" s="1"/>
+    </row>
+    <row r="470" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B470" s="1"/>
+    </row>
+    <row r="471" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B471" s="1"/>
+    </row>
+    <row r="472" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B472" s="1"/>
+    </row>
+    <row r="473" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B473" s="1"/>
+    </row>
+    <row r="474" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B474" s="1"/>
+    </row>
+    <row r="475" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B475" s="1"/>
+    </row>
+    <row r="476" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B476" s="1"/>
+    </row>
+    <row r="477" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B477" s="1"/>
+    </row>
+    <row r="478" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B478" s="1"/>
+    </row>
+    <row r="479" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B479" s="1"/>
+    </row>
+    <row r="480" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B480" s="1"/>
+    </row>
+    <row r="481" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B481" s="1"/>
+    </row>
+    <row r="482" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B482" s="1"/>
+    </row>
+    <row r="483" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B483" s="1"/>
+    </row>
+    <row r="484" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B484" s="1"/>
+    </row>
+    <row r="485" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B485" s="1"/>
+    </row>
+    <row r="486" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B486" s="1"/>
+    </row>
+    <row r="487" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B487" s="1"/>
+    </row>
+    <row r="488" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B488" s="1"/>
+    </row>
+    <row r="489" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B489" s="1"/>
+    </row>
+    <row r="490" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B490" s="1"/>
+    </row>
+    <row r="491" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B491" s="1"/>
+    </row>
+    <row r="492" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B492" s="1"/>
+    </row>
+    <row r="493" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B493" s="1"/>
+    </row>
+    <row r="494" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B494" s="1"/>
+    </row>
+    <row r="495" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B495" s="1"/>
+    </row>
+    <row r="496" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B496" s="1"/>
+    </row>
+    <row r="497" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B497" s="1"/>
+    </row>
+    <row r="498" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B498" s="1"/>
+    </row>
+    <row r="499" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B499" s="1"/>
+    </row>
+    <row r="500" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B500" s="1"/>
+    </row>
+    <row r="501" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B501" s="1"/>
+    </row>
+    <row r="502" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B502" s="1"/>
+    </row>
+    <row r="503" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B503" s="1"/>
+    </row>
+    <row r="504" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B504" s="1"/>
+    </row>
+    <row r="505" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B505" s="1"/>
+    </row>
+    <row r="506" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B506" s="1"/>
+    </row>
+    <row r="507" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B507" s="1"/>
+    </row>
+    <row r="508" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B508" s="1"/>
+    </row>
+    <row r="509" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B509" s="1"/>
+    </row>
+    <row r="510" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B510" s="1"/>
+    </row>
+    <row r="511" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B511" s="1"/>
+    </row>
+    <row r="512" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B512" s="1"/>
+    </row>
+    <row r="513" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B513" s="1"/>
+    </row>
+    <row r="514" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B514" s="1"/>
+    </row>
+    <row r="515" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B515" s="1"/>
+    </row>
+    <row r="516" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B516" s="1"/>
+    </row>
+    <row r="517" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B517" s="1"/>
+    </row>
+    <row r="518" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B518" s="1"/>
+    </row>
+    <row r="519" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B519" s="1"/>
+    </row>
+    <row r="520" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B520" s="1"/>
+    </row>
+    <row r="521" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B521" s="1"/>
+    </row>
+    <row r="522" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B522" s="1"/>
+    </row>
+    <row r="523" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B523" s="1"/>
+    </row>
+    <row r="524" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B524" s="1"/>
+    </row>
+    <row r="525" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B525" s="1"/>
+    </row>
+    <row r="526" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B526" s="1"/>
+    </row>
+    <row r="527" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B527" s="1"/>
+    </row>
+    <row r="528" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B528" s="1"/>
+    </row>
+    <row r="529" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B529" s="1"/>
+    </row>
+    <row r="530" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B530" s="1"/>
+    </row>
+    <row r="531" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B531" s="1"/>
+    </row>
+    <row r="532" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B532" s="1"/>
+    </row>
+    <row r="533" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B533" s="1"/>
+    </row>
+    <row r="534" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B534" s="1"/>
+    </row>
+    <row r="535" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B535" s="1"/>
+    </row>
+    <row r="536" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B536" s="1"/>
+    </row>
+    <row r="537" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B537" s="1"/>
+    </row>
+    <row r="538" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B538" s="1"/>
+    </row>
+    <row r="539" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B539" s="1"/>
+    </row>
+    <row r="540" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B540" s="1"/>
+    </row>
+    <row r="541" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B541" s="1"/>
+    </row>
+    <row r="542" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B542" s="1"/>
+    </row>
+    <row r="543" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B543" s="1"/>
+    </row>
+    <row r="544" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B544" s="1"/>
+    </row>
+    <row r="545" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B545" s="1"/>
+    </row>
+    <row r="546" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B546" s="1"/>
+    </row>
+    <row r="547" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B547" s="1"/>
+    </row>
+    <row r="548" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B548" s="1"/>
+    </row>
+    <row r="549" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B549" s="1"/>
+    </row>
+    <row r="550" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B550" s="1"/>
+    </row>
+    <row r="551" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B551" s="1"/>
+    </row>
+    <row r="552" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B552" s="1"/>
+    </row>
+    <row r="553" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B553" s="1"/>
+    </row>
+    <row r="554" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B554" s="1"/>
+    </row>
+    <row r="555" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B555" s="1"/>
+    </row>
+    <row r="556" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B556" s="1"/>
+    </row>
+    <row r="557" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B557" s="1"/>
+    </row>
+    <row r="558" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B558" s="1"/>
+    </row>
+    <row r="559" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B559" s="1"/>
+    </row>
+    <row r="560" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B560" s="1"/>
+    </row>
+    <row r="561" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B561" s="1"/>
+    </row>
+    <row r="562" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B562" s="1"/>
+    </row>
+    <row r="563" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B563" s="1"/>
+    </row>
+    <row r="564" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B564" s="1"/>
+    </row>
+    <row r="565" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B565" s="1"/>
+    </row>
+    <row r="566" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B566" s="1"/>
+    </row>
+    <row r="567" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B567" s="1"/>
+    </row>
+    <row r="568" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B568" s="1"/>
+    </row>
+    <row r="569" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B569" s="1"/>
+    </row>
+    <row r="570" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B570" s="1"/>
+    </row>
+    <row r="571" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B571" s="1"/>
+    </row>
+    <row r="572" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B572" s="1"/>
+    </row>
+    <row r="573" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B573" s="1"/>
+    </row>
+    <row r="574" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B574" s="1"/>
+    </row>
+    <row r="575" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B575" s="1"/>
+    </row>
+    <row r="576" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B576" s="1"/>
+    </row>
+    <row r="577" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B577" s="1"/>
+    </row>
+    <row r="578" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B578" s="1"/>
+    </row>
+    <row r="579" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B579" s="1"/>
+    </row>
+    <row r="580" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B580" s="1"/>
+    </row>
+    <row r="581" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B581" s="1"/>
+    </row>
+    <row r="582" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B582" s="1"/>
+    </row>
+    <row r="583" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B583" s="1"/>
+    </row>
+    <row r="584" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B584" s="1"/>
+    </row>
+    <row r="585" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B585" s="1"/>
+    </row>
+    <row r="586" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B586" s="1"/>
+    </row>
+    <row r="587" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B587" s="1"/>
+    </row>
+    <row r="588" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B588" s="1"/>
+    </row>
+    <row r="589" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B589" s="1"/>
+    </row>
+    <row r="590" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B590" s="1"/>
+    </row>
+    <row r="591" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B591" s="1"/>
+    </row>
+    <row r="592" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B592" s="1"/>
+    </row>
+    <row r="593" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B593" s="1"/>
+    </row>
+    <row r="594" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B594" s="1"/>
+    </row>
+    <row r="595" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B595" s="1"/>
+    </row>
+    <row r="596" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B596" s="1"/>
+    </row>
+    <row r="597" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B597" s="1"/>
+    </row>
+    <row r="598" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B598" s="1"/>
+    </row>
+    <row r="599" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B599" s="1"/>
+    </row>
+    <row r="600" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B600" s="1"/>
+    </row>
+    <row r="601" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B601" s="1"/>
+    </row>
+    <row r="602" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B602" s="1"/>
+    </row>
+    <row r="603" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B603" s="1"/>
+    </row>
+    <row r="604" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B604" s="1"/>
+    </row>
+    <row r="605" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B605" s="1"/>
+    </row>
+    <row r="606" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B606" s="1"/>
+    </row>
+    <row r="607" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B607" s="1"/>
+    </row>
+    <row r="608" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B608" s="1"/>
+    </row>
+    <row r="609" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B609" s="1"/>
+    </row>
+    <row r="610" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B610" s="1"/>
+    </row>
+    <row r="611" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B611" s="1"/>
+    </row>
+    <row r="612" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B612" s="1"/>
+    </row>
+    <row r="613" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B613" s="1"/>
+    </row>
+    <row r="614" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B614" s="1"/>
+    </row>
+    <row r="615" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B615" s="1"/>
+    </row>
+    <row r="616" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B616" s="1"/>
+    </row>
+    <row r="617" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B617" s="1"/>
+    </row>
+    <row r="618" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B618" s="1"/>
+    </row>
+    <row r="619" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B619" s="1"/>
+    </row>
+    <row r="620" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B620" s="1"/>
+    </row>
+    <row r="621" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B621" s="1"/>
+    </row>
+    <row r="622" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B622" s="1"/>
+    </row>
+    <row r="623" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B623" s="1"/>
+    </row>
+    <row r="624" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B624" s="1"/>
+    </row>
+    <row r="625" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B625" s="1"/>
+    </row>
+    <row r="626" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B626" s="1"/>
+    </row>
+    <row r="627" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B627" s="1"/>
+    </row>
+    <row r="628" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B628" s="1"/>
+    </row>
+    <row r="629" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B629" s="1"/>
+    </row>
+    <row r="630" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B630" s="1"/>
+    </row>
+    <row r="631" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B631" s="1"/>
+    </row>
+    <row r="632" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B632" s="1"/>
+    </row>
+    <row r="633" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B633" s="1"/>
+    </row>
+    <row r="634" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B634" s="1"/>
+    </row>
+    <row r="635" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B635" s="1"/>
+    </row>
+    <row r="636" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B636" s="1"/>
+    </row>
+    <row r="637" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B637" s="1"/>
+    </row>
+    <row r="638" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B638" s="1"/>
+    </row>
+    <row r="639" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B639" s="1"/>
+    </row>
+    <row r="640" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B640" s="1"/>
+    </row>
+    <row r="641" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B641" s="1"/>
+    </row>
+    <row r="642" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B642" s="1"/>
+    </row>
+    <row r="643" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B643" s="1"/>
+    </row>
+    <row r="644" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B644" s="1"/>
+    </row>
+    <row r="645" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B645" s="1"/>
+    </row>
+    <row r="646" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B646" s="1"/>
+    </row>
+    <row r="647" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B647" s="1"/>
+    </row>
+    <row r="648" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B648" s="1"/>
+    </row>
+    <row r="649" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B649" s="1"/>
+    </row>
+    <row r="650" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B650" s="1"/>
+    </row>
+    <row r="651" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B651" s="1"/>
+    </row>
+    <row r="652" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B652" s="1"/>
+    </row>
+    <row r="653" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B653" s="1"/>
+    </row>
+    <row r="654" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B654" s="1"/>
+    </row>
+    <row r="655" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B655" s="1"/>
+    </row>
+    <row r="656" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B656" s="1"/>
+    </row>
+    <row r="657" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B657" s="1"/>
+    </row>
+    <row r="658" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B658" s="1"/>
+    </row>
+    <row r="659" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B659" s="1"/>
+    </row>
+    <row r="660" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B660" s="1"/>
+    </row>
+    <row r="661" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B661" s="1"/>
+    </row>
+    <row r="662" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B662" s="1"/>
+    </row>
+    <row r="663" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B663" s="1"/>
+    </row>
+    <row r="664" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B664" s="1"/>
+    </row>
+    <row r="665" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B665" s="1"/>
+    </row>
+    <row r="666" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B666" s="1"/>
+    </row>
+    <row r="667" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B667" s="1"/>
+    </row>
+    <row r="668" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B668" s="1"/>
+    </row>
+    <row r="669" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B669" s="1"/>
+    </row>
+    <row r="670" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B670" s="1"/>
+    </row>
+    <row r="671" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B671" s="1"/>
+    </row>
+    <row r="672" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B672" s="1"/>
+    </row>
+    <row r="673" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B673" s="1"/>
+    </row>
+    <row r="674" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B674" s="1"/>
+    </row>
+    <row r="675" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B675" s="1"/>
+    </row>
+    <row r="676" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B676" s="1"/>
+    </row>
+    <row r="677" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B677" s="1"/>
+    </row>
+    <row r="678" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B678" s="1"/>
+    </row>
+    <row r="679" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B679" s="1"/>
+    </row>
+    <row r="680" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B680" s="1"/>
+    </row>
+    <row r="681" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B681" s="1"/>
+    </row>
+    <row r="682" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B682" s="1"/>
+    </row>
+    <row r="683" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B683" s="1"/>
+    </row>
+    <row r="684" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B684" s="1"/>
+    </row>
+    <row r="685" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B685" s="1"/>
+    </row>
+    <row r="686" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B686" s="1"/>
+    </row>
+    <row r="687" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B687" s="1"/>
+    </row>
+    <row r="688" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B688" s="1"/>
+    </row>
+    <row r="689" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B689" s="1"/>
+    </row>
+    <row r="690" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B690" s="1"/>
+    </row>
+    <row r="691" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B691" s="1"/>
+    </row>
+    <row r="692" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B692" s="1"/>
+    </row>
+    <row r="693" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B693" s="1"/>
+    </row>
+    <row r="694" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B694" s="1"/>
+    </row>
+    <row r="695" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B695" s="1"/>
+    </row>
+    <row r="696" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B696" s="1"/>
+    </row>
+    <row r="697" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B697" s="1"/>
+    </row>
+    <row r="698" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B698" s="1"/>
+    </row>
+    <row r="699" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B699" s="1"/>
+    </row>
+    <row r="700" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B700" s="1"/>
+    </row>
+    <row r="701" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B701" s="1"/>
+    </row>
+    <row r="702" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B702" s="1"/>
+    </row>
+    <row r="703" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B703" s="1"/>
+    </row>
+    <row r="704" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B704" s="1"/>
+    </row>
+    <row r="705" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B705" s="1"/>
+    </row>
+    <row r="706" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B706" s="1"/>
+    </row>
+    <row r="707" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B707" s="1"/>
+    </row>
+    <row r="708" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B708" s="1"/>
+    </row>
+    <row r="709" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B709" s="1"/>
+    </row>
+    <row r="710" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B710" s="1"/>
+    </row>
+    <row r="711" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B711" s="1"/>
+    </row>
+    <row r="712" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B712" s="1"/>
+    </row>
+    <row r="713" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B713" s="1"/>
+    </row>
+    <row r="714" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B714" s="1"/>
+    </row>
+    <row r="715" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B715" s="1"/>
+    </row>
+    <row r="716" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B716" s="1"/>
+    </row>
+    <row r="717" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B717" s="1"/>
+    </row>
+    <row r="718" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B718" s="1"/>
+    </row>
+    <row r="719" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B719" s="1"/>
+    </row>
+    <row r="720" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B720" s="1"/>
+    </row>
+    <row r="721" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B721" s="1"/>
+    </row>
+    <row r="722" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B722" s="1"/>
+    </row>
+    <row r="723" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B723" s="1"/>
+    </row>
+    <row r="724" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B724" s="1"/>
+    </row>
+    <row r="725" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B725" s="1"/>
+    </row>
+    <row r="726" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B726" s="1"/>
+    </row>
+    <row r="727" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B727" s="1"/>
+    </row>
+    <row r="728" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B728" s="1"/>
+    </row>
+    <row r="729" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B729" s="1"/>
+    </row>
+    <row r="730" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B730" s="1"/>
+    </row>
+    <row r="731" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B731" s="1"/>
+    </row>
+    <row r="732" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B732" s="1"/>
+    </row>
+    <row r="733" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B733" s="1"/>
+    </row>
+    <row r="734" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B734" s="1"/>
+    </row>
+    <row r="735" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B735" s="1"/>
+    </row>
+    <row r="736" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B736" s="1"/>
+    </row>
+    <row r="737" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B737" s="1"/>
+    </row>
+    <row r="738" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B738" s="1"/>
+    </row>
+    <row r="739" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B739" s="1"/>
+    </row>
+    <row r="740" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B740" s="1"/>
+    </row>
+    <row r="741" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B741" s="1"/>
+    </row>
+    <row r="742" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B742" s="1"/>
+    </row>
+    <row r="743" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B743" s="1"/>
+    </row>
+    <row r="744" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B744" s="1"/>
+    </row>
+    <row r="745" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B745" s="1"/>
+    </row>
+    <row r="746" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B746" s="1"/>
+    </row>
+    <row r="747" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B747" s="1"/>
+    </row>
+    <row r="748" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B748" s="1"/>
+    </row>
+    <row r="749" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B749" s="1"/>
+    </row>
+    <row r="750" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B750" s="1"/>
+    </row>
+    <row r="751" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B751" s="1"/>
+    </row>
+    <row r="752" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B752" s="1"/>
+    </row>
+    <row r="753" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B753" s="1"/>
+    </row>
+    <row r="754" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B754" s="1"/>
+    </row>
+    <row r="755" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B755" s="1"/>
+    </row>
+    <row r="756" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B756" s="1"/>
+    </row>
+    <row r="757" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B757" s="1"/>
+    </row>
+    <row r="758" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B758" s="1"/>
+    </row>
+    <row r="759" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B759" s="1"/>
+    </row>
+    <row r="760" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B760" s="1"/>
+    </row>
+    <row r="761" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B761" s="1"/>
+    </row>
+    <row r="762" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B762" s="1"/>
+    </row>
+    <row r="763" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B763" s="1"/>
+    </row>
+    <row r="764" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B764" s="1"/>
+    </row>
+    <row r="765" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B765" s="1"/>
+    </row>
+    <row r="766" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B766" s="1"/>
+    </row>
+    <row r="767" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B767" s="1"/>
+    </row>
+    <row r="768" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B768" s="1"/>
+    </row>
+    <row r="769" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B769" s="1"/>
+    </row>
+    <row r="770" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B770" s="1"/>
+    </row>
+    <row r="771" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B771" s="1"/>
+    </row>
+    <row r="772" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B772" s="1"/>
+    </row>
+    <row r="773" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B773" s="1"/>
+    </row>
+    <row r="774" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B774" s="1"/>
+    </row>
+    <row r="775" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B775" s="1"/>
+    </row>
+    <row r="776" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B776" s="1"/>
+    </row>
+    <row r="777" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B777" s="1"/>
+    </row>
+    <row r="778" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B778" s="1"/>
+    </row>
+    <row r="779" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B779" s="1"/>
+    </row>
+    <row r="780" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B780" s="1"/>
+    </row>
+    <row r="781" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B781" s="1"/>
+    </row>
+    <row r="782" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B782" s="1"/>
+    </row>
+    <row r="783" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B783" s="1"/>
+    </row>
+    <row r="784" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B784" s="1"/>
+    </row>
+    <row r="785" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B785" s="1"/>
+    </row>
+    <row r="786" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B786" s="1"/>
+    </row>
+    <row r="787" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B787" s="1"/>
+    </row>
+    <row r="788" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B788" s="1"/>
+    </row>
+    <row r="789" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B789" s="1"/>
+    </row>
+    <row r="790" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B790" s="1"/>
+    </row>
+    <row r="791" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B791" s="1"/>
+    </row>
+    <row r="792" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B792" s="1"/>
+    </row>
+    <row r="793" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B793" s="1"/>
+    </row>
+    <row r="794" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B794" s="1"/>
+    </row>
+    <row r="795" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B795" s="1"/>
+    </row>
+    <row r="796" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B796" s="1"/>
+    </row>
+    <row r="797" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B797" s="1"/>
+    </row>
+    <row r="798" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B798" s="1"/>
+    </row>
+    <row r="799" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B799" s="1"/>
+    </row>
+    <row r="800" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B800" s="1"/>
+    </row>
+    <row r="801" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B801" s="1"/>
+    </row>
+    <row r="802" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B802" s="1"/>
+    </row>
+    <row r="803" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B803" s="1"/>
+    </row>
+    <row r="804" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B804" s="1"/>
+    </row>
+    <row r="805" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B805" s="1"/>
+    </row>
+    <row r="806" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B806" s="1"/>
+    </row>
+    <row r="807" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B807" s="1"/>
+    </row>
+    <row r="808" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B808" s="1"/>
+    </row>
+    <row r="809" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B809" s="1"/>
+    </row>
+    <row r="810" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B810" s="1"/>
+    </row>
+    <row r="811" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B811" s="1"/>
+    </row>
+    <row r="812" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B812" s="1"/>
+    </row>
+    <row r="813" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B813" s="1"/>
+    </row>
+    <row r="814" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B814" s="1"/>
+    </row>
+    <row r="815" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B815" s="1"/>
+    </row>
+    <row r="816" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B816" s="1"/>
+    </row>
+    <row r="817" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B817" s="1"/>
+    </row>
+    <row r="818" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B818" s="1"/>
+    </row>
+    <row r="819" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B819" s="1"/>
+    </row>
+    <row r="820" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B820" s="1"/>
+    </row>
+    <row r="821" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B821" s="1"/>
+    </row>
+    <row r="822" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B822" s="1"/>
+    </row>
+    <row r="823" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B823" s="1"/>
+    </row>
+    <row r="824" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B824" s="1"/>
+    </row>
+    <row r="825" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B825" s="1"/>
+    </row>
+    <row r="826" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B826" s="1"/>
+    </row>
+    <row r="827" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B827" s="1"/>
+    </row>
+    <row r="828" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B828" s="1"/>
+    </row>
+    <row r="829" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B829" s="1"/>
+    </row>
+    <row r="830" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B830" s="1"/>
+    </row>
+    <row r="831" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B831" s="1"/>
+    </row>
+    <row r="832" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B832" s="1"/>
+    </row>
+    <row r="833" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B833" s="1"/>
+    </row>
+    <row r="834" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B834" s="1"/>
+    </row>
+    <row r="835" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B835" s="1"/>
+    </row>
+    <row r="836" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B836" s="1"/>
+    </row>
+    <row r="837" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B837" s="1"/>
+    </row>
+    <row r="838" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B838" s="1"/>
+    </row>
+    <row r="839" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B839" s="1"/>
+    </row>
+    <row r="840" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B840" s="1"/>
+    </row>
+    <row r="841" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B841" s="1"/>
+    </row>
+    <row r="842" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B842" s="1"/>
+    </row>
+    <row r="843" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B843" s="1"/>
+    </row>
+    <row r="844" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B844" s="1"/>
+    </row>
+    <row r="845" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B845" s="1"/>
+    </row>
+    <row r="846" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B846" s="1"/>
+    </row>
+    <row r="847" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B847" s="1"/>
+    </row>
+    <row r="848" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B848" s="1"/>
+    </row>
+    <row r="849" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B849" s="1"/>
+    </row>
+    <row r="850" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B850" s="1"/>
+    </row>
+    <row r="851" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B851" s="1"/>
+    </row>
+    <row r="852" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B852" s="1"/>
+    </row>
+    <row r="853" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B853" s="1"/>
+    </row>
+    <row r="854" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B854" s="1"/>
+    </row>
+    <row r="855" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B855" s="1"/>
+    </row>
+    <row r="856" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B856" s="1"/>
+    </row>
+    <row r="857" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B857" s="1"/>
+    </row>
+    <row r="858" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B858" s="1"/>
+    </row>
+    <row r="859" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B859" s="1"/>
+    </row>
+    <row r="860" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B860" s="1"/>
+    </row>
+    <row r="861" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B861" s="1"/>
+    </row>
+    <row r="862" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B862" s="1"/>
+    </row>
+    <row r="863" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B863" s="1"/>
+    </row>
+    <row r="864" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B864" s="1"/>
+    </row>
+    <row r="865" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B865" s="1"/>
+    </row>
+    <row r="866" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B866" s="1"/>
+    </row>
+    <row r="867" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B867" s="1"/>
+    </row>
+    <row r="868" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B868" s="1"/>
+    </row>
+    <row r="869" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B869" s="1"/>
+    </row>
+    <row r="870" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B870" s="1"/>
+    </row>
+    <row r="871" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B871" s="1"/>
+    </row>
+    <row r="872" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B872" s="1"/>
+    </row>
+    <row r="873" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B873" s="1"/>
+    </row>
+    <row r="874" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B874" s="1"/>
+    </row>
+    <row r="875" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B875" s="1"/>
+    </row>
+    <row r="876" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B876" s="1"/>
+    </row>
+    <row r="877" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B877" s="1"/>
+    </row>
+    <row r="878" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B878" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vidar\Documents\Rwd\ai_portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DB8EFC-474C-4A33-A2A1-E33CA920EC4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D5E229-C1F5-42F9-9F51-49529F237C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="1200" windowWidth="9675" windowHeight="11640" xr2:uid="{8021A6AD-FF9C-44B8-B823-FCF9A6CAB446}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8021A6AD-FF9C-44B8-B823-FCF9A6CAB446}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="33">
   <si>
     <t>symbol</t>
   </si>
@@ -108,6 +108,33 @@
   </si>
   <si>
     <t>CFG</t>
+  </si>
+  <si>
+    <t>MVST</t>
+  </si>
+  <si>
+    <t>ARGX</t>
+  </si>
+  <si>
+    <t>Medium risk</t>
+  </si>
+  <si>
+    <t>MDGL</t>
+  </si>
+  <si>
+    <t>CYTK</t>
+  </si>
+  <si>
+    <t>SYM</t>
+  </si>
+  <si>
+    <t>CRNX</t>
+  </si>
+  <si>
+    <t>PATH</t>
+  </si>
+  <si>
+    <t>SOUN</t>
   </si>
 </sst>
 </file>
@@ -485,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76405F02-88FB-4385-9399-EAE5923F1017}">
   <dimension ref="A1:D878"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,69 +887,223 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="1">
+        <v>45929</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>0.20899999999999999</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="1">
+        <v>45929</v>
+      </c>
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="1">
+        <v>45929</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29">
+        <v>0.18149999999999999</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="1">
+        <v>45929</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>0.1045</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="1">
+        <v>45929</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>0.10299999999999999</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="1">
+        <v>45929</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="1">
+        <v>45929</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="1">
+        <v>45929</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="1">
+        <v>45929</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="1">
+        <v>45929</v>
+      </c>
+      <c r="C36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="1">
+        <v>45929</v>
+      </c>
+      <c r="C37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="1">
+        <v>45929</v>
+      </c>
+      <c r="C38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="1">
+        <v>45929</v>
+      </c>
+      <c r="C39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="1">
+        <v>45929</v>
+      </c>
+      <c r="C40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vidar\Documents\Rwd\ai_portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D5E229-C1F5-42F9-9F51-49529F237C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1314435C-3BF1-4E8E-AA6B-4FA52C42967F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8021A6AD-FF9C-44B8-B823-FCF9A6CAB446}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{8021A6AD-FF9C-44B8-B823-FCF9A6CAB446}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -512,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76405F02-88FB-4385-9399-EAE5923F1017}">
   <dimension ref="A1:D878"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vidar\Documents\Rwd\ai_portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1314435C-3BF1-4E8E-AA6B-4FA52C42967F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307931FC-0C3C-49C7-8FA7-48EF6504E386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{8021A6AD-FF9C-44B8-B823-FCF9A6CAB446}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8021A6AD-FF9C-44B8-B823-FCF9A6CAB446}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -510,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76405F02-88FB-4385-9399-EAE5923F1017}">
-  <dimension ref="A1:D878"/>
+  <dimension ref="A1:D871"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3575,27 +3575,6 @@
     <row r="871" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B871" s="1"/>
     </row>
-    <row r="872" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B872" s="1"/>
-    </row>
-    <row r="873" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B873" s="1"/>
-    </row>
-    <row r="874" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B874" s="1"/>
-    </row>
-    <row r="875" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B875" s="1"/>
-    </row>
-    <row r="876" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B876" s="1"/>
-    </row>
-    <row r="877" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B877" s="1"/>
-    </row>
-    <row r="878" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B878" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vidar\Documents\Rwd\ai_portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307931FC-0C3C-49C7-8FA7-48EF6504E386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFA2CDE-A75D-4D06-A128-E84D1768ACA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8021A6AD-FF9C-44B8-B823-FCF9A6CAB446}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="32">
   <si>
     <t>symbol</t>
   </si>
@@ -119,22 +119,19 @@
     <t>Medium risk</t>
   </si>
   <si>
-    <t>MDGL</t>
+    <t>AVGO</t>
   </si>
   <si>
-    <t>CYTK</t>
+    <t>NOW</t>
   </si>
   <si>
-    <t>SYM</t>
+    <t>ISGR</t>
   </si>
   <si>
-    <t>CRNX</t>
+    <t>GEHC</t>
   </si>
   <si>
-    <t>PATH</t>
-  </si>
-  <si>
-    <t>SOUN</t>
+    <t>SO</t>
   </si>
 </sst>
 </file>
@@ -512,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76405F02-88FB-4385-9399-EAE5923F1017}">
   <dimension ref="A1:D871"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,7 +989,7 @@
         <v>45929</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D34">
         <v>0.2</v>
@@ -1020,7 +1017,7 @@
         <v>45929</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D36">
         <v>0.15</v>
@@ -1034,10 +1031,10 @@
         <v>45929</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D37">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1048,10 +1045,10 @@
         <v>45929</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D38">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1076,14 +1073,25 @@
         <v>45929</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D40">
         <v>0.1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="1"/>
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="1">
+        <v>45929</v>
+      </c>
+      <c r="C41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vidar\Documents\Rwd\ai_portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307931FC-0C3C-49C7-8FA7-48EF6504E386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281E7CD8-B43F-4B28-94BD-8B4DADADE47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8021A6AD-FF9C-44B8-B823-FCF9A6CAB446}"/>
   </bookViews>
@@ -513,7 +513,7 @@
   <dimension ref="A1:D871"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,7 +989,7 @@
         <v>26</v>
       </c>
       <c r="B34" s="1">
-        <v>45929</v>
+        <v>45935</v>
       </c>
       <c r="C34" t="s">
         <v>16</v>
@@ -1003,7 +1003,7 @@
         <v>26</v>
       </c>
       <c r="B35" s="1">
-        <v>45929</v>
+        <v>45935</v>
       </c>
       <c r="C35" t="s">
         <v>27</v>
@@ -1017,7 +1017,7 @@
         <v>26</v>
       </c>
       <c r="B36" s="1">
-        <v>45929</v>
+        <v>45935</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -1031,7 +1031,7 @@
         <v>26</v>
       </c>
       <c r="B37" s="1">
-        <v>45929</v>
+        <v>45935</v>
       </c>
       <c r="C37" t="s">
         <v>29</v>
@@ -1045,7 +1045,7 @@
         <v>26</v>
       </c>
       <c r="B38" s="1">
-        <v>45929</v>
+        <v>45935</v>
       </c>
       <c r="C38" t="s">
         <v>30</v>
@@ -1059,7 +1059,7 @@
         <v>26</v>
       </c>
       <c r="B39" s="1">
-        <v>45929</v>
+        <v>45935</v>
       </c>
       <c r="C39" t="s">
         <v>31</v>
@@ -1073,7 +1073,7 @@
         <v>26</v>
       </c>
       <c r="B40" s="1">
-        <v>45929</v>
+        <v>45935</v>
       </c>
       <c r="C40" t="s">
         <v>32</v>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vidar\Documents\Rwd\ai_portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281E7CD8-B43F-4B28-94BD-8B4DADADE47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3D84B9-B8E3-4FA9-94CD-E5F7B74C80B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8021A6AD-FF9C-44B8-B823-FCF9A6CAB446}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$70</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="35">
   <si>
     <t>symbol</t>
   </si>
@@ -136,13 +139,20 @@
   <si>
     <t>SOUN</t>
   </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>CASH</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -173,9 +183,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,10 +521,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76405F02-88FB-4385-9399-EAE5923F1017}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D871"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K69" sqref="K69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,7 +786,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -788,7 +800,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -802,7 +814,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -816,7 +828,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -830,7 +842,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -844,7 +856,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -858,7 +870,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -872,7 +884,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -984,7 +996,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -998,7 +1010,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -1012,7 +1024,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -1026,7 +1038,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -1040,7 +1052,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -1054,7 +1066,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -1068,7 +1080,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -1083,123 +1095,455 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="1"/>
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="1">
+        <v>45954</v>
+      </c>
+      <c r="C41" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="1"/>
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="1">
+        <v>45954</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="1"/>
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="1">
+        <v>45954</v>
+      </c>
+      <c r="C43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="1"/>
+      <c r="A44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="1">
+        <v>45954</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="1"/>
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="1">
+        <v>45954</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="1"/>
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="1">
+        <v>45954</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="1"/>
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="1">
+        <v>45954</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="1"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="1"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="1"/>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="1"/>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="1"/>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="1"/>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="1"/>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="1"/>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="1"/>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="1"/>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="1"/>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="1"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="1"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="1"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="1"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="1"/>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="1"/>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="1"/>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="1">
+        <v>45954</v>
+      </c>
+      <c r="C48" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="1">
+        <v>45954</v>
+      </c>
+      <c r="C49" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="1">
+        <v>45954</v>
+      </c>
+      <c r="C50" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="1">
+        <v>45963</v>
+      </c>
+      <c r="C51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="1">
+        <v>45963</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="1">
+        <v>45963</v>
+      </c>
+      <c r="C53" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="1">
+        <v>45963</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="1">
+        <v>45963</v>
+      </c>
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="1">
+        <v>45963</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="1">
+        <v>45963</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" s="1">
+        <v>45963</v>
+      </c>
+      <c r="C58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="1">
+        <v>45963</v>
+      </c>
+      <c r="C59" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="1">
+        <v>45963</v>
+      </c>
+      <c r="C60" t="s">
+        <v>34</v>
+      </c>
+      <c r="D60" s="2">
+        <f>1-SUM(D51:D59)</f>
+        <v>0.22999999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="1">
+        <v>45971</v>
+      </c>
+      <c r="C61" t="s">
+        <v>24</v>
+      </c>
+      <c r="D61" s="2">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" s="1">
+        <v>45971</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="2">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" s="1">
+        <v>45971</v>
+      </c>
+      <c r="C63" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" s="2">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" s="1">
+        <v>45971</v>
+      </c>
+      <c r="C64" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="2">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" s="1">
+        <v>45971</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="2">
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" s="1">
+        <v>45971</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="2">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" s="1">
+        <v>45971</v>
+      </c>
+      <c r="C67" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="2">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" s="1">
+        <v>45971</v>
+      </c>
+      <c r="C68" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68" s="2">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" s="1">
+        <v>45971</v>
+      </c>
+      <c r="C69" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" s="1">
+        <v>45971</v>
+      </c>
+      <c r="C70" t="s">
+        <v>34</v>
+      </c>
+      <c r="D70" s="2">
+        <f>1-SUM(D61:D69)</f>
+        <v>0.21500000000000008</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
@@ -3576,6 +3920,13 @@
       <c r="B871" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D70" xr:uid="{76405F02-88FB-4385-9399-EAE5923F1017}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="High risk"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vidar\Documents\Rwd\ai_portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3D84B9-B8E3-4FA9-94CD-E5F7B74C80B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AECEFF-2336-4D16-A90A-C32B430C25E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8021A6AD-FF9C-44B8-B823-FCF9A6CAB446}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{8021A6AD-FF9C-44B8-B823-FCF9A6CAB446}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="38">
   <si>
     <t>symbol</t>
   </si>
@@ -144,6 +144,15 @@
   </si>
   <si>
     <t>CASH</t>
+  </si>
+  <si>
+    <t>ALDX</t>
+  </si>
+  <si>
+    <t>MIST</t>
+  </si>
+  <si>
+    <t>ASTS</t>
   </si>
 </sst>
 </file>
@@ -524,8 +533,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D871"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K69" sqref="K69"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1517,81 +1526,206 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B71" s="1"/>
+      <c r="A71" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" s="1">
+        <v>45985</v>
+      </c>
+      <c r="C71" t="s">
+        <v>25</v>
+      </c>
+      <c r="D71" s="2">
+        <v>0.188</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B72" s="1"/>
+      <c r="A72" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" s="1">
+        <v>45985</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" s="2">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B73" s="1"/>
+      <c r="A73" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" s="1">
+        <v>45985</v>
+      </c>
+      <c r="C73" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B74" s="1"/>
+      <c r="A74" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" s="1">
+        <v>45985</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="2">
+        <v>8.2000000000000003E-2</v>
+      </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B75" s="1"/>
+      <c r="A75" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" s="1">
+        <v>45985</v>
+      </c>
+      <c r="C75" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B76" s="1"/>
+      <c r="A76" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" s="1">
+        <v>45985</v>
+      </c>
+      <c r="C76" t="s">
+        <v>28</v>
+      </c>
+      <c r="D76" s="2">
+        <v>5.8000000000000003E-2</v>
+      </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B77" s="1"/>
+      <c r="A77" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77" s="1">
+        <v>45985</v>
+      </c>
+      <c r="C77" t="s">
+        <v>35</v>
+      </c>
+      <c r="D77" s="2">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B78" s="1"/>
+      <c r="A78" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78" s="1">
+        <v>45985</v>
+      </c>
+      <c r="C78" t="s">
+        <v>36</v>
+      </c>
+      <c r="D78" s="2">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B79" s="1"/>
+      <c r="A79" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79" s="1">
+        <v>45985</v>
+      </c>
+      <c r="C79" t="s">
+        <v>37</v>
+      </c>
+      <c r="D79" s="2">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B80" s="1"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="1"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80" s="1">
+        <v>45985</v>
+      </c>
+      <c r="C80" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81" s="1">
+        <v>45985</v>
+      </c>
+      <c r="C81" t="s">
+        <v>34</v>
+      </c>
+      <c r="D81" s="2">
+        <f>1-SUM(D71:D80)</f>
+        <v>0.18199999999999983</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vidar\Documents\Rwd\ai_portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AECEFF-2336-4D16-A90A-C32B430C25E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44924843-B588-428B-B5EC-AFEC69C015E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{8021A6AD-FF9C-44B8-B823-FCF9A6CAB446}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{8021A6AD-FF9C-44B8-B823-FCF9A6CAB446}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="41">
   <si>
     <t>symbol</t>
   </si>
@@ -153,6 +153,15 @@
   </si>
   <si>
     <t>ASTS</t>
+  </si>
+  <si>
+    <t>CORT</t>
+  </si>
+  <si>
+    <t>OMER</t>
+  </si>
+  <si>
+    <t>BCRX</t>
   </si>
 </sst>
 </file>
@@ -533,8 +542,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D871"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1681,49 +1690,201 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B82" s="1"/>
-      <c r="D82" s="2"/>
+      <c r="A82" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82" s="1">
+        <v>45992</v>
+      </c>
+      <c r="C82" t="s">
+        <v>38</v>
+      </c>
+      <c r="D82" s="2">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
-      <c r="D83" s="2"/>
+      <c r="A83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" s="1">
+        <v>45992</v>
+      </c>
+      <c r="C83" t="s">
+        <v>39</v>
+      </c>
+      <c r="D83" s="2">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
-      <c r="D84" s="2"/>
+      <c r="A84" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84" s="1">
+        <v>45992</v>
+      </c>
+      <c r="C84" t="s">
+        <v>40</v>
+      </c>
+      <c r="D84" s="2">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" s="1">
+        <v>45992</v>
+      </c>
+      <c r="C85" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>13</v>
+      </c>
+      <c r="B86" s="1">
+        <v>45992</v>
+      </c>
+      <c r="C86" t="s">
+        <v>33</v>
+      </c>
+      <c r="D86" s="2">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>13</v>
+      </c>
+      <c r="B87" s="1">
+        <v>45992</v>
+      </c>
+      <c r="C87" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="2">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>13</v>
+      </c>
+      <c r="B88" s="1">
+        <v>45992</v>
+      </c>
+      <c r="C88" t="s">
+        <v>25</v>
+      </c>
+      <c r="D88" s="2">
+        <v>0.17599999999999999</v>
+      </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>13</v>
+      </c>
+      <c r="B89" s="1">
+        <v>45992</v>
+      </c>
+      <c r="C89" t="s">
+        <v>28</v>
+      </c>
+      <c r="D89" s="2">
+        <v>5.7000000000000002E-2</v>
+      </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>13</v>
+      </c>
+      <c r="B90" s="1">
+        <v>45992</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" s="2">
+        <v>8.6999999999999994E-2</v>
+      </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>13</v>
+      </c>
+      <c r="B91" s="1">
+        <v>45992</v>
+      </c>
+      <c r="C91" t="s">
+        <v>37</v>
+      </c>
+      <c r="D91" s="2">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>13</v>
+      </c>
+      <c r="B92" s="1">
+        <v>45992</v>
+      </c>
+      <c r="C92" t="s">
+        <v>36</v>
+      </c>
+      <c r="D92" s="2">
+        <v>5.0999999999999997E-2</v>
+      </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>13</v>
+      </c>
+      <c r="B93" s="1">
+        <v>45992</v>
+      </c>
+      <c r="C93" t="s">
+        <v>35</v>
+      </c>
+      <c r="D93" s="2">
+        <v>5.1999999999999998E-2</v>
+      </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94" s="1">
+        <v>45992</v>
+      </c>
+      <c r="C94" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94" s="2">
+        <v>4.5999999999999999E-2</v>
+      </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>13</v>
+      </c>
+      <c r="B95" s="1">
+        <v>45992</v>
+      </c>
+      <c r="C95" t="s">
+        <v>34</v>
+      </c>
+      <c r="D95" s="2">
+        <f>1-SUM(D82:D94)</f>
+        <v>3.0999999999999805E-2</v>
+      </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vidar\Documents\Rwd\ai_portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44924843-B588-428B-B5EC-AFEC69C015E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4167F4-DFB0-41E8-A440-56015D769284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{8021A6AD-FF9C-44B8-B823-FCF9A6CAB446}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8021A6AD-FF9C-44B8-B823-FCF9A6CAB446}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="43">
   <si>
     <t>symbol</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t>BCRX</t>
+  </si>
+  <si>
+    <t>AQST</t>
+  </si>
+  <si>
+    <t>CAPR</t>
   </si>
 </sst>
 </file>
@@ -542,8 +548,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D871"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G91" sqref="G91"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C106" sqref="A1:D871"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1887,54 +1893,208 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B108" s="1"/>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B109" s="1"/>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>13</v>
+      </c>
+      <c r="B96" s="1">
+        <v>45999</v>
+      </c>
+      <c r="C96" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>13</v>
+      </c>
+      <c r="B97" s="1">
+        <v>45999</v>
+      </c>
+      <c r="C97" t="s">
+        <v>25</v>
+      </c>
+      <c r="D97">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>13</v>
+      </c>
+      <c r="B98" s="1">
+        <v>45999</v>
+      </c>
+      <c r="C98" t="s">
+        <v>33</v>
+      </c>
+      <c r="D98">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>13</v>
+      </c>
+      <c r="B99" s="1">
+        <v>45999</v>
+      </c>
+      <c r="C99" t="s">
+        <v>38</v>
+      </c>
+      <c r="D99">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>13</v>
+      </c>
+      <c r="B100" s="1">
+        <v>45999</v>
+      </c>
+      <c r="C100" t="s">
+        <v>28</v>
+      </c>
+      <c r="D100">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>13</v>
+      </c>
+      <c r="B101" s="1">
+        <v>45999</v>
+      </c>
+      <c r="C101" t="s">
+        <v>39</v>
+      </c>
+      <c r="D101">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>13</v>
+      </c>
+      <c r="B102" s="1">
+        <v>45999</v>
+      </c>
+      <c r="C102" t="s">
+        <v>40</v>
+      </c>
+      <c r="D102">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>13</v>
+      </c>
+      <c r="B103" s="1">
+        <v>45999</v>
+      </c>
+      <c r="C103" t="s">
+        <v>36</v>
+      </c>
+      <c r="D103">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>13</v>
+      </c>
+      <c r="B104" s="1">
+        <v>45999</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104">
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>13</v>
+      </c>
+      <c r="B105" s="1">
+        <v>45999</v>
+      </c>
+      <c r="C105" t="s">
+        <v>3</v>
+      </c>
+      <c r="D105">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>13</v>
+      </c>
+      <c r="B106" s="1">
+        <v>45999</v>
+      </c>
+      <c r="C106" t="s">
+        <v>37</v>
+      </c>
+      <c r="D106">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>13</v>
+      </c>
+      <c r="B107" s="1">
+        <v>45999</v>
+      </c>
+      <c r="C107" t="s">
+        <v>42</v>
+      </c>
+      <c r="D107">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>13</v>
+      </c>
+      <c r="B108" s="1">
+        <v>45999</v>
+      </c>
+      <c r="C108" t="s">
+        <v>41</v>
+      </c>
+      <c r="D108">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>13</v>
+      </c>
+      <c r="B109" s="1">
+        <v>45999</v>
+      </c>
+      <c r="C109" t="s">
+        <v>34</v>
+      </c>
+      <c r="D109">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
